--- a/Dokumen/POIN.xlsx
+++ b/Dokumen/POIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XXX\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Web\Melejit\project melejit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="87">
   <si>
     <t xml:space="preserve">Mikro </t>
   </si>
@@ -179,72 +179,12 @@
     <t xml:space="preserve">Area Gresik </t>
   </si>
   <si>
-    <t>Nama FL/Nama Nasabah/AXA/Nominal/C</t>
-  </si>
-  <si>
-    <t>Nama FL/Nama Nasabah/CC/</t>
-  </si>
-  <si>
     <t>Format Pelaporan</t>
   </si>
   <si>
     <t>New Payroll</t>
   </si>
   <si>
-    <t>Nama FL/Nama Nasabah/KUM/Nominal/C</t>
-  </si>
-  <si>
-    <t>Nama FL/Nama Nasabah/KUR/Nominal/C</t>
-  </si>
-  <si>
-    <t>Nama FL/Nama Nasabah atau No rekening/BB/Nominal/C</t>
-  </si>
-  <si>
-    <t>Nama FL/Nama Nasabah atau No rekening Gaji/KSM/Nominal/C</t>
-  </si>
-  <si>
-    <t>Nama FL/No Rekening/Tab/Nominal Setoran Awal /C</t>
-  </si>
-  <si>
-    <t>Nama FL/No Rekening/MTR/Nominal Setoran /C</t>
-  </si>
-  <si>
-    <t>Nama FL/No Rekening/MTB/Nominal Setoran Awal /C</t>
-  </si>
-  <si>
-    <t>Nama FL/No Rekening/GIRO/Nominal Setoran Awal /C</t>
-  </si>
-  <si>
-    <t>Nama FL/Nama Nasabah/MTF/Unit/C</t>
-  </si>
-  <si>
-    <t>Nama FL/Nama Nasabah/MUF/Unit/C</t>
-  </si>
-  <si>
-    <t>Nama FL/Nama Nasabah/SME/Nominal/C</t>
-  </si>
-  <si>
-    <t>Nama FL/Nama Nasabah/CL/Nominal/C</t>
-  </si>
-  <si>
-    <t>Nama FL/No Rekening/DEPO/Nominal/C</t>
-  </si>
-  <si>
-    <t>Nama FL/Nama Nasabah/Other/Nominal/C</t>
-  </si>
-  <si>
-    <t>Nama FL/Nama Merchant/EDC/Nominal/C</t>
-  </si>
-  <si>
-    <t>Nama FL/Nama Nasabah/MO/C</t>
-  </si>
-  <si>
-    <t>Nama FL/Nama Nasabah/MIB/C</t>
-  </si>
-  <si>
-    <t>Nama FL/Nama Nasabah/MCM/C</t>
-  </si>
-  <si>
     <t>FUNDING</t>
   </si>
   <si>
@@ -260,16 +200,88 @@
     <t>Tabungan</t>
   </si>
   <si>
-    <t>100-500,500-1000000,1000&gt;</t>
-  </si>
-  <si>
     <t>KREDIT RETAIL</t>
   </si>
   <si>
-    <t>Setoran</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Produk Holding</t>
+  </si>
+  <si>
+    <t>Produk Content</t>
+  </si>
+  <si>
+    <t>Cabang/Jabatan/Nama Nasabah/No Rekening/Nominal Setoran Awal</t>
+  </si>
+  <si>
+    <t>Cabang/Jabatan/Nama Nasabah/Other/Nominal</t>
+  </si>
+  <si>
+    <t>Cabang/Jabatan/Nama Nasabah/No Rekening/Nominal</t>
+  </si>
+  <si>
+    <t>Kredit Kendaraan Bermotor</t>
+  </si>
+  <si>
+    <t>MEP</t>
+  </si>
+  <si>
+    <t>MSM</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>MJK</t>
+  </si>
+  <si>
+    <t>Cabang/Jabatan/Nama Nasabah/Unit</t>
+  </si>
+  <si>
+    <t>Cabang/Nama Nasabah/Nominal</t>
+  </si>
+  <si>
+    <t>KPBA</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>KMK</t>
+  </si>
+  <si>
+    <t>KAD</t>
+  </si>
+  <si>
+    <t>Referral KPR</t>
+  </si>
+  <si>
+    <t>Incoming</t>
+  </si>
+  <si>
+    <t>Cabang/Nama Nasabah atau No rekening Gaji/Nominal</t>
+  </si>
+  <si>
+    <t>Cabang/Nama Nasabah/Limit CC</t>
+  </si>
+  <si>
+    <t>Cabang/Nama Merchant/Nominal</t>
+  </si>
+  <si>
+    <t>Akuisisi &amp; Aktivasi</t>
+  </si>
+  <si>
+    <t>Cabang/Nama Nasabah/No Rekening</t>
+  </si>
+  <si>
+    <t>Cabang/Nama Nasabah/No Rekening/Nominal</t>
+  </si>
+  <si>
+    <t>Cabang/Jabatan/Nama Nasabah/No Rekening/Nominal Setoran Awal(Min 5 jt)</t>
+  </si>
+  <si>
+    <t>Cabang/Jabatan/Nama Nasabah/No Rekening/Nominal Setoran Awal (Min 100RB)</t>
   </si>
 </sst>
 </file>
@@ -283,7 +295,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,8 +336,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,8 +370,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -402,43 +434,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -476,7 +471,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -537,32 +532,40 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -610,9 +613,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>3420035</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>147917</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -657,58 +660,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>280147</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>22413</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>941294</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>44825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Double Brace 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="280147" y="1546413"/>
-          <a:ext cx="1266265" cy="593912"/>
-        </a:xfrm>
-        <a:prstGeom prst="bracePair">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -999,61 +950,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O57"/>
+  <dimension ref="B2:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="92.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
       <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1063,17 +1016,15 @@
       <c r="D3" s="2">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -1087,8 +1038,11 @@
       <c r="L3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -1098,14 +1052,15 @@
       <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="30"/>
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -1115,14 +1070,15 @@
       <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -1132,11 +1088,12 @@
       <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -1144,8 +1101,9 @@
         <v>20</v>
       </c>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -1153,8 +1111,9 @@
         <v>1</v>
       </c>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -1164,8 +1123,9 @@
       <c r="D9" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -1175,8 +1135,9 @@
       <c r="D10" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="30"/>
+    </row>
+    <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -1186,8 +1147,9 @@
       <c r="D11" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -1197,766 +1159,940 @@
       <c r="D12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="29"/>
+    </row>
+    <row r="13" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="29"/>
+    </row>
+    <row r="14" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="30"/>
+    </row>
+    <row r="15" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="30"/>
+    </row>
+    <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="2">
         <v>5</v>
       </c>
-      <c r="K17">
+      <c r="E17" s="30"/>
+      <c r="L17">
         <v>1859</v>
       </c>
     </row>
-    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="30"/>
+    </row>
+    <row r="21" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="30"/>
+    </row>
+    <row r="22" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="29"/>
+    </row>
+    <row r="23" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="30"/>
+    </row>
+    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="30"/>
+    </row>
+    <row r="25" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="29" t="s">
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="24">
+        <v>5</v>
+      </c>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="23"/>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="25"/>
+      <c r="F27" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="23"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="23"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="23"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="23"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="23"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+    </row>
+    <row r="34" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="4">
-        <v>5</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J34" s="27" t="s">
+      <c r="E35" s="4">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K35" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="K34" s="19" t="s">
+      <c r="L35" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="L34" s="19" t="s">
+      <c r="M35" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="M34" s="19" t="s">
+      <c r="N35" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="N34" s="19" t="s">
+      <c r="O35" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="O34" s="19" t="s">
+      <c r="P35" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="4">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="4">
         <v>10</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="J35" s="27"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="14" t="s">
+      <c r="F36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="23"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M35" s="19" t="s">
+      <c r="N36" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="N35" s="14" t="s">
+      <c r="O36" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="O35" s="19"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="P36" s="19"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="4">
         <v>10</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="10">
+      <c r="F37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" s="10">
         <v>17800</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="L37" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="L36" s="12">
+      <c r="M37" s="12">
         <v>4</v>
       </c>
-      <c r="M36" s="12">
+      <c r="N37" s="12">
         <v>50</v>
       </c>
-      <c r="N36" s="12">
+      <c r="O37" s="12">
         <v>180</v>
       </c>
-      <c r="O36" s="13">
+      <c r="P37" s="13">
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="4">
+    <row r="38" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="4">
         <v>15</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="13"/>
-    </row>
-    <row r="38" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="4">
-        <v>5</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J38" s="10"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="12"/>
+      <c r="F38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K38" s="10"/>
+      <c r="L38" s="11"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
-      <c r="O38" s="13"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-      <c r="C39" s="3" t="s">
+      <c r="O38" s="12"/>
+      <c r="P38" s="13"/>
+    </row>
+    <row r="39" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="4">
+        <v>5</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K39" s="10"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="13"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="C40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D40" s="31"/>
+      <c r="E40" s="4">
         <v>10</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J39" s="6">
+      <c r="K40" s="6">
         <v>17801</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L39" s="8">
+      <c r="M40" s="8">
         <v>0</v>
-      </c>
-      <c r="M39" s="8">
-        <v>120</v>
-      </c>
-      <c r="N39" s="8">
-        <v>120</v>
-      </c>
-      <c r="O39" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
-      <c r="C40" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="J40" s="6">
-        <v>17802</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L40" s="8">
-        <v>4</v>
-      </c>
-      <c r="M40" s="8">
-        <v>50</v>
       </c>
       <c r="N40" s="8">
         <v>120</v>
       </c>
-      <c r="O40" s="9">
+      <c r="O40" s="8">
+        <v>120</v>
+      </c>
+      <c r="P40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="C41" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="K41" s="6">
+        <v>17802</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M41" s="8">
+        <v>4</v>
+      </c>
+      <c r="N41" s="8">
+        <v>50</v>
+      </c>
+      <c r="O41" s="8">
+        <v>120</v>
+      </c>
+      <c r="P41" s="9">
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
-      <c r="C41" s="3" t="s">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="C42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="4">
-        <v>5</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J41" s="6">
+      <c r="D42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="4">
+        <v>5</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K42" s="6">
         <v>17803</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L41" s="8">
+      <c r="M42" s="8">
         <v>0</v>
       </c>
-      <c r="M41" s="8">
+      <c r="N42" s="8">
         <v>22</v>
       </c>
-      <c r="N41" s="8">
+      <c r="O42" s="8">
         <v>120</v>
       </c>
-      <c r="O41" s="9">
+      <c r="P42" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
-      <c r="C42" s="3" t="s">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="C43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="4">
-        <v>5</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="J42" s="6">
-        <v>17804</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L42" s="8">
-        <v>6</v>
-      </c>
-      <c r="M42" s="8">
-        <v>65</v>
-      </c>
-      <c r="N42" s="8">
-        <v>120</v>
-      </c>
-      <c r="O42" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-      <c r="C43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="4">
-        <v>10</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="5"/>
+      <c r="D43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="4">
+        <v>5</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="J43" s="6">
-        <v>17805</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L43" s="8">
-        <v>9</v>
+      <c r="I43" s="5"/>
+      <c r="K43" s="6">
+        <v>17804</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M43" s="8">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="N43" s="8">
-        <v>60</v>
-      </c>
-      <c r="O43" s="9">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="O43" s="8">
+        <v>120</v>
+      </c>
+      <c r="P43" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="C44" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="4">
+        <v>10</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="J44" s="6">
+      <c r="I44" s="5"/>
+      <c r="K44" s="6">
+        <v>17805</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M44" s="8">
+        <v>9</v>
+      </c>
+      <c r="N44" s="8">
+        <v>29</v>
+      </c>
+      <c r="O44" s="8">
+        <v>60</v>
+      </c>
+      <c r="P44" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="4">
+        <v>10</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="K45" s="6">
         <v>17806</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L44" s="8">
+      <c r="M45" s="8">
         <v>3</v>
       </c>
-      <c r="M44" s="8">
+      <c r="N45" s="8">
         <v>23</v>
       </c>
-      <c r="N44" s="8">
+      <c r="O45" s="8">
         <v>60</v>
       </c>
-      <c r="O44" s="9">
+      <c r="P45" s="9">
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="9"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="5"/>
-      <c r="C46" s="3" t="s">
+    <row r="46" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="38"/>
+      <c r="D46" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="4">
+        <v>10</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K46" s="6"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="9"/>
+    </row>
+    <row r="47" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="39"/>
+      <c r="D47" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="4">
+        <v>10</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K47" s="6"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="9"/>
+    </row>
+    <row r="48" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="9"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D49" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="4">
         <v>10</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="J46" s="6">
+      <c r="F49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="K49" s="6">
         <v>17807</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L46" s="8">
+      <c r="M49" s="8">
         <v>0</v>
       </c>
-      <c r="M46" s="8">
+      <c r="N49" s="8">
         <v>46</v>
       </c>
-      <c r="N46" s="8">
+      <c r="O49" s="8">
         <v>60</v>
       </c>
-      <c r="O46" s="9">
+      <c r="P49" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="5"/>
-      <c r="C47" s="3" t="s">
+    <row r="50" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="38"/>
+      <c r="D50" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="4">
+        <v>10</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K50" s="6"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="9"/>
+    </row>
+    <row r="51" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="38"/>
+      <c r="D51" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="4">
+        <v>10</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K51" s="6"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="9"/>
+    </row>
+    <row r="52" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="39"/>
+      <c r="D52" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="4">
+        <v>10</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K52" s="6"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="9"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="4">
         <v>10</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="J47" s="6">
-        <v>17808</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L47" s="8">
-        <v>5</v>
-      </c>
-      <c r="M47" s="8">
-        <v>5</v>
-      </c>
-      <c r="N47" s="8">
-        <v>60</v>
-      </c>
-      <c r="O47" s="9">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
-      <c r="C48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="4">
-        <v>5</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="J48" s="6">
-        <v>17809</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L48" s="8">
-        <v>17</v>
-      </c>
-      <c r="M48" s="8">
-        <v>30</v>
-      </c>
-      <c r="N48" s="8">
-        <v>60</v>
-      </c>
-      <c r="O48" s="9">
-        <v>0.28333333333333333</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="4">
-        <v>5</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J49" s="20"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="9"/>
-    </row>
-    <row r="50" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="4">
-        <v>5</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J50" s="20"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="9"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="5"/>
-      <c r="C51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="4">
-        <v>5</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="J51" s="15">
-        <v>178</v>
-      </c>
-      <c r="K51" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L51" s="17">
-        <v>48</v>
-      </c>
-      <c r="M51" s="17">
-        <v>440</v>
-      </c>
-      <c r="N51" s="17">
-        <v>960</v>
-      </c>
-      <c r="O51" s="18">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="5"/>
-      <c r="C52" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="5"/>
-      <c r="C53" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53" s="4">
-        <v>5</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F53" s="5"/>
+      <c r="F53" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K53" s="6">
+        <v>17808</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M53" s="8">
+        <v>5</v>
+      </c>
+      <c r="N53" s="8">
+        <v>5</v>
+      </c>
+      <c r="O53" s="8">
+        <v>60</v>
+      </c>
+      <c r="P53" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
-      <c r="C54" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F54" s="5"/>
+      <c r="C54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="31"/>
+      <c r="E54" s="4">
+        <v>5</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B55" s="5"/>
-      <c r="C55" s="3" t="s">
+      <c r="K54" s="6">
+        <v>17809</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M54" s="8">
+        <v>17</v>
+      </c>
+      <c r="N54" s="8">
+        <v>30</v>
+      </c>
+      <c r="O54" s="8">
+        <v>60</v>
+      </c>
+      <c r="P54" s="9">
+        <v>0.28333333333333333</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="31"/>
+      <c r="E55" s="4">
+        <v>5</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K55" s="20"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="9"/>
+    </row>
+    <row r="56" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="4">
+        <v>5</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K56" s="20"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="9"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="C57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="31"/>
+      <c r="E57" s="4">
+        <v>5</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="K57" s="15">
+        <v>178</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M57" s="17">
+        <v>48</v>
+      </c>
+      <c r="N57" s="17">
+        <v>440</v>
+      </c>
+      <c r="O57" s="17">
+        <v>960</v>
+      </c>
+      <c r="P57" s="18">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="C58" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="C59" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="31"/>
+      <c r="E59" s="4">
+        <v>5</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="C60" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="C61" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="4">
         <v>2</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="5"/>
-      <c r="C56" s="3" t="s">
+      <c r="F61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+      <c r="C62" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="4">
-        <v>5</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C57" s="3" t="s">
+      <c r="D62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" s="4">
+        <v>5</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C63" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="4">
-        <v>5</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="D63" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63" s="4">
+        <v>5</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G69" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C45:E45"/>
+  <mergeCells count="9">
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="C49:C52"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:L7">
-      <formula1>INDIRECT(XEA6)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:M7">
+      <formula1>INDIRECT(XEB6)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:D7">
-      <formula1>INDIRECT(XDZ2)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:E7">
+      <formula1>INDIRECT(XEA2)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
